--- a/Demanda Factores UPME.xlsx
+++ b/Demanda Factores UPME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianaarango/Modelo_SimulacionMercado/simulador-mercado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F58959-2AED-D140-83D3-80109AF6802B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6525A45-DBF7-6044-BF5F-F732D6ED5B96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="28500" windowHeight="17540" activeTab="4" xr2:uid="{88A22AFD-46F1-4543-A418-31EFFADF8B5B}"/>
+    <workbookView xWindow="880" yWindow="660" windowWidth="24820" windowHeight="17540" activeTab="4" xr2:uid="{88A22AFD-46F1-4543-A418-31EFFADF8B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Abril 18" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="oct 18" sheetId="2" r:id="rId3"/>
     <sheet name="Factores" sheetId="4" r:id="rId4"/>
     <sheet name="TasaCompuesta" sheetId="8" r:id="rId5"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId6"/>
-    <sheet name="Hoja1 (2)" sheetId="7" r:id="rId7"/>
-    <sheet name="UPME" sheetId="6" r:id="rId8"/>
+    <sheet name="TasaFactores" sheetId="9" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId7"/>
+    <sheet name="Hoja1 (2)" sheetId="7" r:id="rId8"/>
+    <sheet name="UPME" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
   <si>
     <t>Histórico DEE (GWh)</t>
   </si>
@@ -130,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -138,7 +139,8 @@
     <numFmt numFmtId="168" formatCode="0.00000000"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
-    <numFmt numFmtId="172" formatCode="0.00000%"/>
+    <numFmt numFmtId="171" formatCode="0.00000%"/>
+    <numFmt numFmtId="172" formatCode="0.0000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -199,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -209,16 +211,19 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4816,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73255DF-000E-D141-B53B-8776D962EB38}">
   <dimension ref="A1:R241"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView topLeftCell="F18" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9508,15 +9513,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADB1929-CFF0-984A-B717-598093E968AB}">
-  <dimension ref="A1:J241"/>
+  <dimension ref="A1:P241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+    <sheetView tabSelected="1" topLeftCell="D204" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K231" sqref="K231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -11823,7 +11829,7 @@
         <v>5441.1928189999999</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2015</v>
       </c>
@@ -11834,7 +11840,7 @@
         <v>5534.7573899999998</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2016</v>
       </c>
@@ -11845,7 +11851,7 @@
         <v>5583.7338650000002</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2016</v>
       </c>
@@ -11856,7 +11862,7 @@
         <v>5464.9239539999999</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2016</v>
       </c>
@@ -11867,7 +11873,7 @@
         <v>5567.0538660000002</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2016</v>
       </c>
@@ -11878,7 +11884,7 @@
         <v>5396.9405139999999</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2016</v>
       </c>
@@ -11901,7 +11907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2016</v>
       </c>
@@ -11914,17 +11920,17 @@
       <c r="F199">
         <v>2017</v>
       </c>
-      <c r="G199">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H199">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I199">
-        <v>2.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G199" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H199" s="16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I199" s="17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2016</v>
       </c>
@@ -11947,7 +11953,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2016</v>
       </c>
@@ -11970,7 +11976,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2016</v>
       </c>
@@ -11993,7 +11999,7 @@
         <v>2.8999999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2016</v>
       </c>
@@ -12004,7 +12010,7 @@
         <v>5587.3533209999996</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2016</v>
       </c>
@@ -12024,7 +12030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2016</v>
       </c>
@@ -12037,23 +12043,23 @@
       <c r="D205">
         <v>5547.9809919999998</v>
       </c>
-      <c r="E205" s="14">
+      <c r="E205" s="13">
         <f>(1+G199)^(1/365)-1</f>
-        <v>1.021854527523125E-4</v>
-      </c>
-      <c r="F205" s="14">
+        <v>5.4255245176770828E-5</v>
+      </c>
+      <c r="F205" s="12">
         <f t="shared" ref="F205:G205" si="0">(1+H199)^(1/365)-1</f>
-        <v>8.6301441726055472E-5</v>
-      </c>
-      <c r="G205" s="14">
+        <v>6.7653281778268237E-5</v>
+      </c>
+      <c r="G205" s="12">
         <f t="shared" si="0"/>
-        <v>7.0325066523269086E-5</v>
+        <v>8.0986299053176225E-5</v>
       </c>
       <c r="H205" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2017</v>
       </c>
@@ -12063,11 +12069,23 @@
       <c r="C206">
         <v>31</v>
       </c>
-      <c r="D206" s="13">
+      <c r="D206" s="11">
         <v>5428.1326349999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K206">
+        <f>D206</f>
+        <v>5428.1326349999999</v>
+      </c>
+      <c r="L206">
+        <f>D206</f>
+        <v>5428.1326349999999</v>
+      </c>
+      <c r="M206">
+        <f>D206</f>
+        <v>5428.1326349999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2017</v>
       </c>
@@ -12077,11 +12095,27 @@
       <c r="C207">
         <v>28</v>
       </c>
-      <c r="D207" s="13">
+      <c r="D207" s="11">
         <v>5188.5698579999998</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E207">
+        <f>$D206*(1+E$205)^$C207</f>
+        <v>5436.384808359815</v>
+      </c>
+      <c r="K207">
+        <f>$K206*(1+E$205)^$C207</f>
+        <v>5436.384808359815</v>
+      </c>
+      <c r="L207">
+        <f>$K206*(1+F$205)^$C207</f>
+        <v>5438.4244993120128</v>
+      </c>
+      <c r="M207">
+        <f>$K206*(1+G$205)^$C207</f>
+        <v>5440.4550244209613</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2017</v>
       </c>
@@ -12091,7 +12125,7 @@
       <c r="C208">
         <v>31</v>
       </c>
-      <c r="D208" s="13">
+      <c r="D208" s="11">
         <v>5607.7562029999999</v>
       </c>
       <c r="E208" s="8" t="s">
@@ -12103,13 +12137,25 @@
       <c r="G208" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H208" s="9" t="s">
+      <c r="H208" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I208" s="9"/>
-      <c r="J208" s="9"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I208" s="14"/>
+      <c r="J208" s="14"/>
+      <c r="K208">
+        <f t="shared" ref="K208:K217" si="1">$K207*(1+E$205)^$C208</f>
+        <v>5445.5357776363626</v>
+      </c>
+      <c r="L208">
+        <f t="shared" ref="L208:L217" si="2">$K207*(1+F$205)^$C208</f>
+        <v>5447.7978536026203</v>
+      </c>
+      <c r="M208">
+        <f t="shared" ref="M208:M217" si="3">$K207*(1+G$205)^$C208</f>
+        <v>5450.0498546745293</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2017</v>
       </c>
@@ -12124,30 +12170,42 @@
       </c>
       <c r="E209">
         <f>$D208*(1+E$205)^$C209</f>
-        <v>5624.9726321234075</v>
+        <v>5616.8908928863302</v>
       </c>
       <c r="F209">
-        <f t="shared" ref="F209:G209" si="1">$D208*(1+F$205)^$C209</f>
-        <v>5622.2931093057496</v>
+        <f t="shared" ref="F209:G209" si="4">$D208*(1+F$205)^$C209</f>
+        <v>5619.1488683023917</v>
       </c>
       <c r="G209">
-        <f t="shared" si="1"/>
-        <v>5619.5992499673284</v>
+        <f t="shared" si="4"/>
+        <v>5621.3967570448667</v>
       </c>
       <c r="H209">
         <f>($D209-E209)/$D209</f>
-        <v>-3.1871794195203092E-2</v>
+        <v>-3.0389241423451629E-2</v>
       </c>
       <c r="I209">
-        <f t="shared" ref="I209:J209" si="2">($D209-F209)/$D209</f>
-        <v>-3.1380249756097101E-2</v>
+        <f t="shared" ref="I209:J209" si="5">($D209-F209)/$D209</f>
+        <v>-3.0803455197668788E-2</v>
       </c>
       <c r="J209">
+        <f t="shared" si="5"/>
+        <v>-3.1215818624399493E-2</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="1"/>
+        <v>5454.4062204289739</v>
+      </c>
+      <c r="L209">
         <f t="shared" si="2"/>
-        <v>-3.0886075357279309E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5456.5988774326097</v>
+      </c>
+      <c r="M209">
+        <f t="shared" si="3"/>
+        <v>5458.7817395486099</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2017</v>
       </c>
@@ -12162,30 +12220,42 @@
       </c>
       <c r="E210">
         <f>E209*(1+E$205)^$C210</f>
-        <v>5642.8184726251502</v>
+        <v>5626.3457048252285</v>
       </c>
       <c r="F210">
-        <f t="shared" ref="F210:G210" si="3">F209*(1+F$205)^$C210</f>
-        <v>5637.3541692353565</v>
+        <f t="shared" ref="F210:G210" si="6">F209*(1+F$205)^$C210</f>
+        <v>5630.9456050163517</v>
       </c>
       <c r="G210">
+        <f t="shared" si="6"/>
+        <v>5635.5268544802575</v>
+      </c>
+      <c r="H210">
+        <f t="shared" ref="H210:H217" si="7">($D210-E210)/$D210</f>
+        <v>9.7793557228472543E-3</v>
+      </c>
+      <c r="I210">
+        <f t="shared" ref="I210:I217" si="8">($D210-F210)/$D210</f>
+        <v>8.9697865335672117E-3</v>
+      </c>
+      <c r="J210">
+        <f t="shared" ref="J210:J217" si="9">($D210-G210)/$D210</f>
+        <v>8.1634998185769383E-3</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="1"/>
+        <v>5463.5875248260072</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="2"/>
+        <v>5465.8570994893871</v>
+      </c>
+      <c r="M210">
         <f t="shared" si="3"/>
-        <v>5631.863341634893</v>
-      </c>
-      <c r="H210">
-        <f t="shared" ref="H210:H217" si="4">($D210-E210)/$D210</f>
-        <v>6.8801960196179799E-3</v>
-      </c>
-      <c r="I210">
-        <f t="shared" ref="I210:I217" si="5">($D210-F210)/$D210</f>
-        <v>7.8418976830132679E-3</v>
-      </c>
-      <c r="J210">
-        <f t="shared" ref="J210:J217" si="6">($D210-G210)/$D210</f>
-        <v>8.8082675311160555E-3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5468.1165658605214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2017</v>
       </c>
@@ -12199,31 +12269,43 @@
         <v>5492.8670519999996</v>
       </c>
       <c r="E211">
-        <f t="shared" ref="E211:E217" si="7">E210*(1+E$205)^$C211</f>
-        <v>5660.1425467777026</v>
+        <f t="shared" ref="E211:E217" si="10">E210*(1+E$205)^$C211</f>
+        <v>5635.5106758664751</v>
       </c>
       <c r="F211">
-        <f t="shared" ref="F211:F217" si="8">F210*(1+F$205)^$C211</f>
-        <v>5651.9678019262101</v>
+        <f t="shared" ref="F211:F217" si="11">F210*(1+F$205)^$C211</f>
+        <v>5642.3853816920227</v>
       </c>
       <c r="G211">
-        <f t="shared" ref="G211:G217" si="9">G210*(1+G$205)^$C211</f>
-        <v>5643.7573005828363</v>
+        <f t="shared" ref="G211:G217" si="12">G210*(1+G$205)^$C211</f>
+        <v>5649.2349590852173</v>
       </c>
       <c r="H211">
-        <f t="shared" si="4"/>
-        <v>-3.0453221094582393E-2</v>
+        <f t="shared" si="7"/>
+        <v>-2.5968883374764693E-2</v>
       </c>
       <c r="I211">
-        <f t="shared" si="5"/>
-        <v>-2.8964973741405328E-2</v>
+        <f t="shared" si="8"/>
+        <v>-2.7220453048755703E-2</v>
       </c>
       <c r="J211">
-        <f t="shared" si="6"/>
-        <v>-2.7470216765558931E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>-2.8467447983887173E-2</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="1"/>
+        <v>5472.487372804314</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="2"/>
+        <v>5474.6872983838102</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="3"/>
+        <v>5476.8773966059862</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2017</v>
       </c>
@@ -12237,31 +12319,43 @@
         <v>5665.0409989999998</v>
       </c>
       <c r="E212">
+        <f t="shared" si="10"/>
+        <v>5644.9968301529061</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="11"/>
+        <v>5654.2309007103913</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="12"/>
+        <v>5663.4350313906016</v>
+      </c>
+      <c r="H212">
         <f t="shared" si="7"/>
-        <v>5678.0999676778629</v>
-      </c>
-      <c r="F212">
+        <v>3.5382213210163769E-3</v>
+      </c>
+      <c r="I212">
         <f t="shared" si="8"/>
-        <v>5667.1083547451526</v>
-      </c>
-      <c r="G212">
+        <v>1.9082118366869219E-3</v>
+      </c>
+      <c r="J212">
         <f t="shared" si="9"/>
-        <v>5656.0741142567367</v>
-      </c>
-      <c r="H212">
-        <f t="shared" si="4"/>
-        <v>-2.3051852016901971E-3</v>
-      </c>
-      <c r="I212">
-        <f t="shared" si="5"/>
-        <v>-3.6493217710475767E-4</v>
-      </c>
-      <c r="J212">
-        <f t="shared" si="6"/>
-        <v>1.5828455160070251E-3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.8348737629290527E-4</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="1"/>
+        <v>5481.6991128816207</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="2"/>
+        <v>5483.9762111000227</v>
+      </c>
+      <c r="M212">
+        <f t="shared" si="3"/>
+        <v>5486.2431675175694</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2017</v>
       </c>
@@ -12275,31 +12369,43 @@
         <v>5769.3194640000002</v>
       </c>
       <c r="E213">
+        <f t="shared" si="10"/>
+        <v>5654.4989523131153</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="11"/>
+        <v>5666.1012879912623</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="12"/>
+        <v>5677.6707973881303</v>
+      </c>
+      <c r="H213">
         <f t="shared" si="7"/>
-        <v>5696.1143604586287</v>
-      </c>
-      <c r="F213">
+        <v>1.9901916058445684E-2</v>
+      </c>
+      <c r="I213">
         <f t="shared" si="8"/>
-        <v>5682.2894662416556</v>
-      </c>
-      <c r="G213">
+        <v>1.789087545815574E-2</v>
+      </c>
+      <c r="J213">
         <f t="shared" si="9"/>
-        <v>5668.4178078779833</v>
-      </c>
-      <c r="H213">
-        <f t="shared" si="4"/>
-        <v>1.268868954097001E-2</v>
-      </c>
-      <c r="I213">
-        <f t="shared" si="5"/>
-        <v>1.5084967698773372E-2</v>
-      </c>
-      <c r="J213">
-        <f t="shared" si="6"/>
-        <v>1.7489351517390145E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.5885524659147197E-2</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="1"/>
+        <v>5490.9263589161765</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="2"/>
+        <v>5493.2072901332676</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="3"/>
+        <v>5495.4780624779896</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2017</v>
       </c>
@@ -12313,31 +12419,43 @@
         <v>5623.5790239999997</v>
       </c>
       <c r="E214">
+        <f t="shared" si="10"/>
+        <v>5663.7097832626359</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="11"/>
+        <v>5677.6124866252194</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="12"/>
+        <v>5691.4814147825355</v>
+      </c>
+      <c r="H214">
         <f t="shared" si="7"/>
-        <v>5713.6020588562869</v>
-      </c>
-      <c r="F214">
+        <v>-7.1361599243770632E-3</v>
+      </c>
+      <c r="I214">
         <f t="shared" si="8"/>
-        <v>5697.0195840610986</v>
-      </c>
-      <c r="G214">
+        <v>-9.6083761594917931E-3</v>
+      </c>
+      <c r="J214">
         <f t="shared" si="9"/>
-        <v>5680.3889663768541</v>
-      </c>
-      <c r="H214">
-        <f t="shared" si="4"/>
-        <v>-1.6008139028915916E-2</v>
-      </c>
-      <c r="I214">
-        <f t="shared" si="5"/>
-        <v>-1.305939860499397E-2</v>
-      </c>
-      <c r="J214">
-        <f t="shared" si="6"/>
-        <v>-1.0102097282603147E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-1.2074586396447127E-2</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="1"/>
+        <v>5499.8707401734328</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="2"/>
+        <v>5502.0816737948344</v>
+      </c>
+      <c r="M214">
+        <f t="shared" si="3"/>
+        <v>5504.2827308845426</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2017</v>
       </c>
@@ -12351,31 +12469,43 @@
         <v>5740.345421</v>
       </c>
       <c r="E215">
+        <f t="shared" si="10"/>
+        <v>5673.2434046019898</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="11"/>
+        <v>5689.5319607730617</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="12"/>
+        <v>5705.7876789404263</v>
+      </c>
+      <c r="H215">
         <f t="shared" si="7"/>
-        <v>5731.7290859018012</v>
-      </c>
-      <c r="F215">
+        <v>1.1689543307364355E-2</v>
+      </c>
+      <c r="I215">
         <f t="shared" si="8"/>
-        <v>5712.2808220840097</v>
-      </c>
-      <c r="G215">
+        <v>8.8519865095655417E-3</v>
+      </c>
+      <c r="J215">
         <f t="shared" si="9"/>
-        <v>5692.785724204643</v>
-      </c>
-      <c r="H215">
-        <f t="shared" si="4"/>
-        <v>1.5010133478514168E-3</v>
-      </c>
-      <c r="I215">
-        <f t="shared" si="5"/>
-        <v>4.8890087368821155E-3</v>
-      </c>
-      <c r="J215">
-        <f t="shared" si="6"/>
-        <v>8.2851628791132653E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.0201502740846449E-3</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="1"/>
+        <v>5509.1285741830707</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="2"/>
+        <v>5511.4170666017335</v>
+      </c>
+      <c r="M215">
+        <f t="shared" si="3"/>
+        <v>5513.6953664717475</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2017</v>
       </c>
@@ -12389,31 +12519,43 @@
         <v>5572.7472809999999</v>
       </c>
       <c r="E216">
+        <f t="shared" si="10"/>
+        <v>5682.4847691112</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="11"/>
+        <v>5701.0907609437381</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="12"/>
+        <v>5719.6666890802544</v>
+      </c>
+      <c r="H216">
         <f t="shared" si="7"/>
-        <v>5749.3261254288072</v>
-      </c>
-      <c r="F216">
+        <v>-1.9691811341480431E-2</v>
+      </c>
+      <c r="I216">
         <f t="shared" si="8"/>
-        <v>5727.0886860668161</v>
-      </c>
-      <c r="G216">
+        <v>-2.3030558084217959E-2</v>
+      </c>
+      <c r="J216">
         <f t="shared" si="9"/>
-        <v>5704.8083454217749</v>
-      </c>
-      <c r="H216">
-        <f t="shared" si="4"/>
-        <v>-3.1686138905104126E-2</v>
-      </c>
-      <c r="I216">
-        <f t="shared" si="5"/>
-        <v>-2.7695748126428658E-2</v>
-      </c>
-      <c r="J216">
-        <f t="shared" si="6"/>
-        <v>-2.369765893960964E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-2.6363910055847817E-2</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="1"/>
+        <v>5518.1026057292638</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="2"/>
+        <v>5520.3208685128302</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="3"/>
+        <v>5522.52922202437</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2017</v>
       </c>
@@ -12427,31 +12569,55 @@
         <v>5671.5664969999998</v>
       </c>
       <c r="E217">
+        <f t="shared" si="10"/>
+        <v>5692.0499940482987</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="11"/>
+        <v>5713.0595249443904</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="12"/>
+        <v>5734.0438005185069</v>
+      </c>
+      <c r="H217">
         <f t="shared" si="7"/>
-        <v>5767.5664909802699</v>
-      </c>
-      <c r="F217">
+        <v>-3.6116118993110144E-3</v>
+      </c>
+      <c r="I217">
         <f t="shared" si="8"/>
-        <v>5742.4304735272135</v>
-      </c>
-      <c r="G217">
+        <v>-7.3159731030815831E-3</v>
+      </c>
+      <c r="J217">
         <f t="shared" si="9"/>
-        <v>5717.2583955734026</v>
-      </c>
-      <c r="H217">
-        <f t="shared" si="4"/>
-        <v>-1.6926539436864532E-2</v>
-      </c>
-      <c r="I217">
-        <f t="shared" si="5"/>
-        <v>-1.2494603839115265E-2</v>
-      </c>
-      <c r="J217">
-        <f t="shared" si="6"/>
-        <v>-8.0563101212992438E-3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-1.1015881335704128E-2</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="1"/>
+        <v>5527.3911291119748</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="2"/>
+        <v>5529.6872077973121</v>
+      </c>
+      <c r="M217">
+        <f t="shared" si="3"/>
+        <v>5531.9730601460815</v>
+      </c>
+      <c r="N217">
+        <f>SUM(K206:K217)*(1+G199)</f>
+        <v>67042.205917252038</v>
+      </c>
+      <c r="O217">
+        <f t="shared" ref="O217:P217" si="13">SUM(L206:L217)*(1+H199)</f>
+        <v>67395.993295689434</v>
+      </c>
+      <c r="P217">
+        <f t="shared" si="13"/>
+        <v>67749.913270401899</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2018</v>
       </c>
@@ -12465,8 +12631,23 @@
       <c r="D218">
         <v>5618.579084</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J218">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="K218">
+        <f>N$217*$J218</f>
+        <v>5470.6440028477664</v>
+      </c>
+      <c r="L218">
+        <f t="shared" ref="L218:M218" si="14">O$217*$J218</f>
+        <v>5499.5130529282578</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="14"/>
+        <v>5528.3929228647958</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2018</v>
       </c>
@@ -12474,14 +12655,29 @@
         <v>2</v>
       </c>
       <c r="C219">
-        <f t="shared" ref="C219:C241" si="10">C207</f>
+        <f t="shared" ref="C219:C241" si="15">C207</f>
         <v>28</v>
       </c>
       <c r="D219">
         <v>5239.200237</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J219">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="K219">
+        <f t="shared" ref="K219:K229" si="16">N$217*$J219</f>
+        <v>5195.7709585870325</v>
+      </c>
+      <c r="L219">
+        <f t="shared" ref="L219:L229" si="17">O$217*$J219</f>
+        <v>5223.189480415931</v>
+      </c>
+      <c r="M219">
+        <f t="shared" ref="M219:M229" si="18">P$217*$J219</f>
+        <v>5250.618278456147</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2018</v>
       </c>
@@ -12489,14 +12685,29 @@
         <v>3</v>
       </c>
       <c r="C220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D220">
         <v>5790.2463010000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J220">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="16"/>
+        <v>5638.2495176408956</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="17"/>
+        <v>5668.0030361674808</v>
+      </c>
+      <c r="M220">
+        <f t="shared" si="18"/>
+        <v>5697.7677060407996</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2018</v>
       </c>
@@ -12504,14 +12715,29 @@
         <v>4</v>
       </c>
       <c r="C221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="D221">
         <v>5607.304873</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J221">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="16"/>
+        <v>5443.8271204808652</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="17"/>
+        <v>5472.5546556099816</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="18"/>
+        <v>5501.2929575566341</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2018</v>
       </c>
@@ -12519,14 +12745,29 @@
         <v>5</v>
       </c>
       <c r="C222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D222">
         <v>5799.1163720000004</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J222">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="16"/>
+        <v>5671.7706205995219</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="17"/>
+        <v>5701.7010328153256</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="18"/>
+        <v>5731.6426626760003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2018</v>
       </c>
@@ -12534,14 +12775,29 @@
         <v>6</v>
       </c>
       <c r="C223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="D223">
         <v>5696.940184</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J223">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="16"/>
+        <v>5463.9397822560413</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="17"/>
+        <v>5492.7734535986892</v>
+      </c>
+      <c r="M223">
+        <f t="shared" si="18"/>
+        <v>5521.6179315377549</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2018</v>
       </c>
@@ -12549,14 +12805,29 @@
         <v>7</v>
       </c>
       <c r="C224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D224">
         <v>5918.2463690000004</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J224">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="16"/>
+        <v>5678.4748411912478</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="17"/>
+        <v>5708.4406321448951</v>
+      </c>
+      <c r="M224">
+        <f t="shared" si="18"/>
+        <v>5738.4176540030403</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2018</v>
       </c>
@@ -12564,14 +12835,29 @@
         <v>8</v>
       </c>
       <c r="C225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D225">
         <v>6018.7783680000002</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J225">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="16"/>
+        <v>5752.2212677002253</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="17"/>
+        <v>5782.5762247701532</v>
+      </c>
+      <c r="M225">
+        <f t="shared" si="18"/>
+        <v>5812.9425586004827</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2018</v>
       </c>
@@ -12579,14 +12865,29 @@
         <v>9</v>
       </c>
       <c r="C226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="D226">
         <v>5813.1962830000002</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J226">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="K226">
+        <f t="shared" si="16"/>
+        <v>5624.8410764574464</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="17"/>
+        <v>5654.5238375083436</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="18"/>
+        <v>5684.2177233867196</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2018</v>
       </c>
@@ -12594,14 +12895,29 @@
         <v>10</v>
       </c>
       <c r="C227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D227">
         <v>5933.6956909999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J227">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="16"/>
+        <v>5745.5170471084994</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="17"/>
+        <v>5775.8366254405846</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="18"/>
+        <v>5806.1675672734427</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2018</v>
       </c>
@@ -12609,14 +12925,29 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="D228">
         <v>5819.2536639999998</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J228">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="16"/>
+        <v>5598.0241940905453</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="17"/>
+        <v>5627.5654401900683</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="18"/>
+        <v>5657.1177580785588</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2018</v>
       </c>
@@ -12624,14 +12955,29 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D229">
         <v>5871.0971929999996</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J229">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="16"/>
+        <v>5752.2212677002253</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="17"/>
+        <v>5782.5762247701532</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="18"/>
+        <v>5812.9425586004827</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2019</v>
       </c>
@@ -12639,14 +12985,33 @@
         <v>1</v>
       </c>
       <c r="C230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D230">
         <v>5832.4261200000001</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J230">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="K230">
+        <f>N$230*$J230</f>
+        <v>5579.4988772164315</v>
+      </c>
+      <c r="L230">
+        <f t="shared" ref="L230" si="19">O$217*$J230</f>
+        <v>5499.5130529282578</v>
+      </c>
+      <c r="M230">
+        <f t="shared" ref="M230" si="20">P$217*$J230</f>
+        <v>5528.3929228647958</v>
+      </c>
+      <c r="N230">
+        <f>SUM(K218:K229)*(1+G199)</f>
+        <v>68376.211730593524</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2019</v>
       </c>
@@ -12654,14 +13019,14 @@
         <v>2</v>
       </c>
       <c r="C231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="D231">
         <v>5509.1337750000002</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2019</v>
       </c>
@@ -12669,14 +13034,14 @@
         <v>3</v>
       </c>
       <c r="C232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D232">
         <v>6021.8828059999996</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2019</v>
       </c>
@@ -12684,14 +13049,14 @@
         <v>4</v>
       </c>
       <c r="C233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="D233">
         <v>5834.6984140000004</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2019</v>
       </c>
@@ -12699,14 +13064,14 @@
         <v>5</v>
       </c>
       <c r="C234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D234">
         <v>6104.0705829999997</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2019</v>
       </c>
@@ -12714,14 +13079,14 @@
         <v>6</v>
       </c>
       <c r="C235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="D235">
         <v>5882.7662929999997</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2019</v>
       </c>
@@ -12729,14 +13094,14 @@
         <v>7</v>
       </c>
       <c r="C236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D236">
         <v>6146.8170689999997</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2019</v>
       </c>
@@ -12744,14 +13109,14 @@
         <v>8</v>
       </c>
       <c r="C237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D237">
         <v>6256.7983649999996</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2019</v>
       </c>
@@ -12759,14 +13124,14 @@
         <v>9</v>
       </c>
       <c r="C238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="D238">
         <v>6050.1472860000003</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2019</v>
       </c>
@@ -12774,14 +13139,14 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D239">
         <v>6092.4388769999996</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2019</v>
       </c>
@@ -12789,7 +13154,7 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="D240">
@@ -12804,7 +13169,7 @@
         <v>12</v>
       </c>
       <c r="C241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="D241">
@@ -12820,6 +13185,3456 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC57438-046E-AF49-B911-3C7DB3D7EE40}">
+  <dimension ref="A1:K241"/>
+  <sheetViews>
+    <sheetView topLeftCell="A203" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206:E217"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3354.237365</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3278.266736</v>
+      </c>
+      <c r="G3">
+        <v>2016</v>
+      </c>
+      <c r="H3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3495.2031980000002</v>
+      </c>
+      <c r="G4">
+        <v>2017</v>
+      </c>
+      <c r="H4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J4">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3298.3857309999999</v>
+      </c>
+      <c r="G5">
+        <v>2018</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <v>0.05</v>
+      </c>
+      <c r="J5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3502.1271240000001</v>
+      </c>
+      <c r="G6">
+        <v>2019</v>
+      </c>
+      <c r="H6">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I6">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J6">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>3367.885957</v>
+      </c>
+      <c r="G7">
+        <v>2020</v>
+      </c>
+      <c r="H7">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3459.3627369999999</v>
+      </c>
+      <c r="G8">
+        <v>2021</v>
+      </c>
+      <c r="H8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2000</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>3518.5190720000001</v>
+      </c>
+      <c r="G9">
+        <v>2022</v>
+      </c>
+      <c r="H9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2000</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>3456.2032599999998</v>
+      </c>
+      <c r="G10">
+        <v>2023</v>
+      </c>
+      <c r="H10">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2000</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>3576.0676480000002</v>
+      </c>
+      <c r="G11">
+        <v>2024</v>
+      </c>
+      <c r="H11">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>3527.6262459999998</v>
+      </c>
+      <c r="G12">
+        <v>2025</v>
+      </c>
+      <c r="H12">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>3644.9586559999998</v>
+      </c>
+      <c r="G13">
+        <v>2026</v>
+      </c>
+      <c r="H13">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="I13">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="J13">
+        <v>2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2001</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3512.7539660000002</v>
+      </c>
+      <c r="G14">
+        <v>2027</v>
+      </c>
+      <c r="H14">
+        <v>0.03</v>
+      </c>
+      <c r="I14">
+        <v>0.03</v>
+      </c>
+      <c r="J14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2001</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3300.2853369999998</v>
+      </c>
+      <c r="G15">
+        <v>2028</v>
+      </c>
+      <c r="H15">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I15">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J15">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2001</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3669.3758579999999</v>
+      </c>
+      <c r="G16">
+        <v>2029</v>
+      </c>
+      <c r="H16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2001</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3498.8792149999999</v>
+      </c>
+      <c r="G17">
+        <v>2030</v>
+      </c>
+      <c r="H17">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I17">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J17">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2001</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3666.3526959999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2001</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>3451.9355810000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2001</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3607.6113409999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2001</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>3730.5105039999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2001</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>3594.7730929999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>3746.3550190000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2001</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>3613.553128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2001</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>3757.2144109999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2002</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>3671.5911110000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2002</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3462.6619409999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2002</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3701.0134779999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2002</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>3680.2241079999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2002</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>3813.0211789999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2002</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>3602.0309149999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2002</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>3766.4371540000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2002</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>3832.3094000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2002</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>3767.7941340000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2002</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>3886.198879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2002</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>3753.654329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2002</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>3904.1648260000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2003</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>3810.9420540000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2003</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>3550.1474950000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2003</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3890.9730629999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2003</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>3693.822013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2003</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>3887.2120479999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2003</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>3642.107712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2003</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>3902.8970629999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2003</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>3886.8927079999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2003</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>3836.0332149999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2003</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>3941.7011630000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2003</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>3809.5017600000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2003</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>3963.9686649999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2004</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>3810.3605080000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2004</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>3743.7341500000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2004</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>4027.5064179999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2004</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>3790.6067619999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2004</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>3931.0971639999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2004</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>3835.5930400000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2004</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>3937.4501529999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2004</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>4027.2172129999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2004</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>3900.0541899999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2004</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>3999.4952199999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2004</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>3920.8758389999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2004</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>4087.1054800000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2005</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>3946.7898660000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2005</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>3708.6804980000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2005</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>4089.009192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2005</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>4056.0197880000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2005</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>4110.8094199999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2005</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>4003.626119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2005</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>4090.4487549999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2005</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>4195.6597890000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2005</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>4136.0348690000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2005</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>4167.134857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2005</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>4083.8971969999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2005</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>4240.8199269999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2006</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>4096.5840150000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2006</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>3880.8495859999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2006</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>4268.5271750000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2006</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>4039.5671980000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2006</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>4287.4939469999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2006</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>4152.4279130000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2006</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>4324.5034480000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2006</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>4369.1386069999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2006</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>4281.9340089999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2006</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>4428.2196180000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2006</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>4272.2224910000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2006</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>4413.1673049999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2007</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>4309.4887989999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2007</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>4066.9464240000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2007</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>4511.3180560000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2007</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>4242.6867970000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2007</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>4474.7452949999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2007</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>4314.7482909999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2007</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>4468.4349099999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2007</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>4507.8183630000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2007</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>4414.6575659999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2007</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>4541.849228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2007</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>4453.575382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2007</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>4546.9710160000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2008</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>4418.4616939999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2008</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>4314.8437009999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2008</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>4363.5113979999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2008</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>4471.2185010000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2008</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>4513.135835</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2008</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>4377.9005010000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2008</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>4595.3696769999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2008</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>4546.6160630000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2008</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>4543.9853549999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2008</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>4682.5050170000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2008</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>4459.5483020000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2008</v>
+      </c>
+      <c r="B109">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>4583.5006389999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>2009</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>4464.7324289999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>2009</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>4177.199533</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>2009</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>4560.0861340000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>2009</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>4406.1197849999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>2009</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>4586.6400000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>2009</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>4414.2652170000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2009</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>4653.4159680000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2009</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>4649.4321030000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>2009</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>4680.9455049999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>2009</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>4737.3056770000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2009</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="D120">
+        <v>4607.5535369999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2009</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>4741.1721960000004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2010</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>4576.9405159999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2010</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>4409.4595810000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2010</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>4890.1213690000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2010</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>4610.7545270000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2010</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>4785.909138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2010</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>4587.0741790000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2010</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <v>4706.7512420000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2010</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>4771.8102159999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2010</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>4664.8451969999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2010</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>4818.6964660000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2010</v>
+      </c>
+      <c r="B132">
+        <v>11</v>
+      </c>
+      <c r="D132">
+        <v>4615.7352540000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2010</v>
+      </c>
+      <c r="B133">
+        <v>12</v>
+      </c>
+      <c r="D133">
+        <v>4707.231941</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2011</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>4666.6299230000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2011</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>4359.0004369999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2011</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>4801.2053599999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2011</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>4587.4527850000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2011</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>4855.4771199999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2011</v>
+      </c>
+      <c r="B139">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>4693.7269500000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2011</v>
+      </c>
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="D140">
+        <v>4817.0438190000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2011</v>
+      </c>
+      <c r="B141">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>4978.716136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2011</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>4601.6943039999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>2011</v>
+      </c>
+      <c r="B143">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>4573.200468</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2011</v>
+      </c>
+      <c r="B144">
+        <v>11</v>
+      </c>
+      <c r="D144">
+        <v>4790.8238629999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2011</v>
+      </c>
+      <c r="B145">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>5013.8114569999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2012</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>4806.9142890000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2012</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>4631.6994969999996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2012</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>5033.8623440000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2012</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>4724.6903480000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2012</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>5032.7087430000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2012</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>4893.7003789999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2012</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>5033.978349</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2012</v>
+      </c>
+      <c r="B153">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>5104.3110040000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2012</v>
+      </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>5024.614399</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2012</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>5069.5251850000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2012</v>
+      </c>
+      <c r="B156">
+        <v>11</v>
+      </c>
+      <c r="D156">
+        <v>4979.6174579999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>2012</v>
+      </c>
+      <c r="B157">
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <v>5034.2743890000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2013</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>5025.2024510000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>2013</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>4609.6858030000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>2013</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>5033.0368159999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>2013</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>5106.2210450000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>2013</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>5163.347702</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2013</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>4955.0127940000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2013</v>
+      </c>
+      <c r="B164">
+        <v>7</v>
+      </c>
+      <c r="D164">
+        <v>5205.5003669999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>2013</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>5196.476103</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>2013</v>
+      </c>
+      <c r="B166">
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>5084.604754</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>2013</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>5249.0490339999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>2013</v>
+      </c>
+      <c r="B168">
+        <v>11</v>
+      </c>
+      <c r="D168">
+        <v>5085.6992909999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>2013</v>
+      </c>
+      <c r="B169">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>5176.4405779999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>2014</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>5166.8898300000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>2014</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>4902.0781200000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>2014</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>5316.7299970000004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>2014</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>5168.9900820000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2014</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>5410.8747640000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>2014</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>5218.074439</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>2014</v>
+      </c>
+      <c r="B176">
+        <v>7</v>
+      </c>
+      <c r="D176">
+        <v>5513.5905279999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>2014</v>
+      </c>
+      <c r="B177">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>5418.8811470000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>2014</v>
+      </c>
+      <c r="B178">
+        <v>9</v>
+      </c>
+      <c r="D178">
+        <v>5345.7743529999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>2014</v>
+      </c>
+      <c r="B179">
+        <v>10</v>
+      </c>
+      <c r="D179">
+        <v>5461.2802659999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>2014</v>
+      </c>
+      <c r="B180">
+        <v>11</v>
+      </c>
+      <c r="D180">
+        <v>5250.6955209999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>2014</v>
+      </c>
+      <c r="B181">
+        <v>12</v>
+      </c>
+      <c r="D181">
+        <v>5397.3888150000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>2015</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>5309.6560950000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>2015</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>5048.3137210000004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>2015</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>5533.3288839999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>2015</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>5278.0672439999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>2015</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>5622.903456</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>2015</v>
+      </c>
+      <c r="B187">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>5413.9255400000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>2015</v>
+      </c>
+      <c r="B188">
+        <v>7</v>
+      </c>
+      <c r="D188">
+        <v>5669.2284689999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>2015</v>
+      </c>
+      <c r="B189">
+        <v>8</v>
+      </c>
+      <c r="D189">
+        <v>5691.3539019999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>2015</v>
+      </c>
+      <c r="B190">
+        <v>9</v>
+      </c>
+      <c r="D190">
+        <v>5701.0752089999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>2015</v>
+      </c>
+      <c r="B191">
+        <v>10</v>
+      </c>
+      <c r="D191">
+        <v>5762.7268009999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>2015</v>
+      </c>
+      <c r="B192">
+        <v>11</v>
+      </c>
+      <c r="D192">
+        <v>5441.1928189999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>2015</v>
+      </c>
+      <c r="B193">
+        <v>12</v>
+      </c>
+      <c r="D193">
+        <v>5534.7573899999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>2016</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>5583.7338650000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>2016</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>5464.9239539999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>2016</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>5567.0538660000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>2016</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="D197">
+        <v>5396.9405139999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>2016</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="D198">
+        <v>5550.0042649999996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>2016</v>
+      </c>
+      <c r="B199">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>5400.6429429999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>2016</v>
+      </c>
+      <c r="B200">
+        <v>7</v>
+      </c>
+      <c r="D200">
+        <v>5488.2927069999996</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>2016</v>
+      </c>
+      <c r="B201">
+        <v>8</v>
+      </c>
+      <c r="D201">
+        <v>5762.1913459999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>2016</v>
+      </c>
+      <c r="B202">
+        <v>9</v>
+      </c>
+      <c r="D202">
+        <v>5541.8675480000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>2016</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="D203">
+        <v>5587.3533209999996</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+      <c r="G203">
+        <v>2.5</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>2016</v>
+      </c>
+      <c r="B204">
+        <v>11</v>
+      </c>
+      <c r="D204">
+        <v>5428.4883579999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>2016</v>
+      </c>
+      <c r="B205">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205">
+        <v>5547.9809919999998</v>
+      </c>
+      <c r="F205">
+        <f>SUM($D$194:$D$205)*(1+F$203/100)</f>
+        <v>67645.863152580016</v>
+      </c>
+      <c r="G205">
+        <f t="shared" ref="G205:H205" si="0">SUM($D$194:$D$205)*(1+G$203/100)</f>
+        <v>67977.460520975015</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="0"/>
+        <v>68309.057889370015</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>2017</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>31</v>
+      </c>
+      <c r="D206" s="11">
+        <v>5428.1326349999999</v>
+      </c>
+      <c r="E206">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="F206">
+        <f>F$205*$E206</f>
+        <v>5519.9024332505296</v>
+      </c>
+      <c r="G206">
+        <f t="shared" ref="G206:H217" si="1">G$205*$E206</f>
+        <v>5546.9607785115613</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="1"/>
+        <v>5574.019123772594</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>2017</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>28</v>
+      </c>
+      <c r="D207" s="11">
+        <v>5188.5698579999998</v>
+      </c>
+      <c r="E207">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="F207">
+        <f t="shared" ref="F207:F217" si="2">F$205*$E207</f>
+        <v>5242.5543943249513</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="1"/>
+        <v>5268.2531903755635</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="1"/>
+        <v>5293.9519864261765</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2017</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>31</v>
+      </c>
+      <c r="D208" s="11">
+        <v>5607.7562029999999</v>
+      </c>
+      <c r="E208">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="2"/>
+        <v>5689.0170911319792</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="1"/>
+        <v>5716.9044298139988</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="1"/>
+        <v>5744.7917684960175</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>2017</v>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>30</v>
+      </c>
+      <c r="D209">
+        <v>5451.2320849999996</v>
+      </c>
+      <c r="E209">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="2"/>
+        <v>5492.844087989497</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="1"/>
+        <v>5519.7697943031708</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="1"/>
+        <v>5546.6955006168446</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>2017</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>31</v>
+      </c>
+      <c r="D210">
+        <v>5681.9111350000003</v>
+      </c>
+      <c r="E210">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="2"/>
+        <v>5722.8400227082693</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="1"/>
+        <v>5750.8931600744863</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="1"/>
+        <v>5778.9462974407033</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>2017</v>
+      </c>
+      <c r="B211">
+        <v>6</v>
+      </c>
+      <c r="C211">
+        <v>30</v>
+      </c>
+      <c r="D211">
+        <v>5492.8670519999996</v>
+      </c>
+      <c r="E211">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="2"/>
+        <v>5513.1378469352712</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="1"/>
+        <v>5540.1630324594644</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="1"/>
+        <v>5567.1882179836566</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>2017</v>
+      </c>
+      <c r="B212">
+        <v>7</v>
+      </c>
+      <c r="C212">
+        <v>31</v>
+      </c>
+      <c r="D212">
+        <v>5665.0409989999998</v>
+      </c>
+      <c r="E212">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="2"/>
+        <v>5729.6046090235268</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="1"/>
+        <v>5757.6909061265833</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="1"/>
+        <v>5785.7772032296398</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>2017</v>
+      </c>
+      <c r="B213">
+        <v>8</v>
+      </c>
+      <c r="C213">
+        <v>31</v>
+      </c>
+      <c r="D213">
+        <v>5769.3194640000002</v>
+      </c>
+      <c r="E213">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="2"/>
+        <v>5804.0150584913654</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="1"/>
+        <v>5832.4661126996562</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="1"/>
+        <v>5860.9171669079469</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>2017</v>
+      </c>
+      <c r="B214">
+        <v>9</v>
+      </c>
+      <c r="C214">
+        <v>30</v>
+      </c>
+      <c r="D214">
+        <v>5623.5790239999997</v>
+      </c>
+      <c r="E214">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="2"/>
+        <v>5675.4879185014634</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="1"/>
+        <v>5703.308937709804</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="1"/>
+        <v>5731.1299569181447</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>2017</v>
+      </c>
+      <c r="B215">
+        <v>10</v>
+      </c>
+      <c r="C215">
+        <v>31</v>
+      </c>
+      <c r="D215">
+        <v>5740.345421</v>
+      </c>
+      <c r="E215">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="2"/>
+        <v>5797.250472176107</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="1"/>
+        <v>5825.6683666475583</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="1"/>
+        <v>5854.0862611190105</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>2017</v>
+      </c>
+      <c r="B216">
+        <v>11</v>
+      </c>
+      <c r="C216">
+        <v>30</v>
+      </c>
+      <c r="D216">
+        <v>5572.7472809999999</v>
+      </c>
+      <c r="E216">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="2"/>
+        <v>5648.4295732404316</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="1"/>
+        <v>5676.1179535014144</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="1"/>
+        <v>5703.8063337623962</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>2017</v>
+      </c>
+      <c r="B217">
+        <v>12</v>
+      </c>
+      <c r="C217">
+        <v>31</v>
+      </c>
+      <c r="D217">
+        <v>5671.5664969999998</v>
+      </c>
+      <c r="E217">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="2"/>
+        <v>5804.0150584913654</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="1"/>
+        <v>5832.4661126996562</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="1"/>
+        <v>5860.9171669079469</v>
+      </c>
+      <c r="I217">
+        <f>SUM(F206:F217)*(1+F203/100)</f>
+        <v>68991.880537590056</v>
+      </c>
+      <c r="J217">
+        <f t="shared" ref="J217:K217" si="3">SUM(G206:G217)*(1+G203/100)</f>
+        <v>69669.92934429599</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="3"/>
+        <v>70351.293793088509</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>2018</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <f>C206</f>
+        <v>31</v>
+      </c>
+      <c r="D218">
+        <v>5618.579084</v>
+      </c>
+      <c r="E218">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="F218">
+        <f>I$217*$E218</f>
+        <v>5629.7374518673487</v>
+      </c>
+      <c r="G218">
+        <f t="shared" ref="G218:H218" si="4">J$217*$E218</f>
+        <v>5685.0662344945531</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="4"/>
+        <v>5740.665573516023</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>2018</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ref="C219:C241" si="5">C207</f>
+        <v>28</v>
+      </c>
+      <c r="D219">
+        <v>5239.200237</v>
+      </c>
+      <c r="E219">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="F219">
+        <f t="shared" ref="F219:F229" si="6">I$217*$E219</f>
+        <v>5346.8707416632296</v>
+      </c>
+      <c r="G219">
+        <f t="shared" ref="G219:G229" si="7">J$217*$E219</f>
+        <v>5399.4195241829393</v>
+      </c>
+      <c r="H219">
+        <f t="shared" ref="H219:H229" si="8">K$217*$E219</f>
+        <v>5452.2252689643592</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>2018</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D220">
+        <v>5790.2463010000001</v>
+      </c>
+      <c r="E220">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="6"/>
+        <v>5802.2171532113234</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="7"/>
+        <v>5859.2410578552926</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="8"/>
+        <v>5916.5438079987434</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>2018</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="D221">
+        <v>5607.304873</v>
+      </c>
+      <c r="E221">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="6"/>
+        <v>5602.1406996523119</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="7"/>
+        <v>5657.1982627568341</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="8"/>
+        <v>5712.5250559987862</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>2018</v>
+      </c>
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D222">
+        <v>5799.1163720000004</v>
+      </c>
+      <c r="E222">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="6"/>
+        <v>5836.713093480118</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="7"/>
+        <v>5894.0760225274407</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="8"/>
+        <v>5951.7194548952875</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>2018</v>
+      </c>
+      <c r="B223">
+        <v>6</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="D223">
+        <v>5696.940184</v>
+      </c>
+      <c r="E223">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="6"/>
+        <v>5622.8382638135899</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="7"/>
+        <v>5678.0992415601231</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="8"/>
+        <v>5733.6304441367138</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>2018</v>
+      </c>
+      <c r="B224">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D224">
+        <v>5918.2463690000004</v>
+      </c>
+      <c r="E224">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="6"/>
+        <v>5843.6122815338776</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="7"/>
+        <v>5901.0430154618698</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="8"/>
+        <v>5958.7545842745967</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>2018</v>
+      </c>
+      <c r="B225">
+        <v>8</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D225">
+        <v>6018.7783680000002</v>
+      </c>
+      <c r="E225">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="6"/>
+        <v>5919.5033501252265</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="7"/>
+        <v>5977.679937740596</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="8"/>
+        <v>6036.1410074469941</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>2018</v>
+      </c>
+      <c r="B226">
+        <v>9</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="D226">
+        <v>5813.1962830000002</v>
+      </c>
+      <c r="E226">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="6"/>
+        <v>5788.418777103806</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="7"/>
+        <v>5845.3070719864336</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="8"/>
+        <v>5902.473549240126</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>2018</v>
+      </c>
+      <c r="B227">
+        <v>10</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D227">
+        <v>5933.6956909999999</v>
+      </c>
+      <c r="E227">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="6"/>
+        <v>5912.6041620714677</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="7"/>
+        <v>5970.712944806166</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="8"/>
+        <v>6029.1058780676849</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>2018</v>
+      </c>
+      <c r="B228">
+        <v>11</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="D228">
+        <v>5819.2536639999998</v>
+      </c>
+      <c r="E228">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="6"/>
+        <v>5760.8220248887701</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="7"/>
+        <v>5817.4391002487155</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="8"/>
+        <v>5874.3330317228911</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>2018</v>
+      </c>
+      <c r="B229">
+        <v>12</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D229">
+        <v>5871.0971929999996</v>
+      </c>
+      <c r="E229">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="6"/>
+        <v>5919.5033501252265</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="7"/>
+        <v>5977.679937740596</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="8"/>
+        <v>6036.1410074469941</v>
+      </c>
+      <c r="I229">
+        <f>SUM(F218:F229)*(1+F203/100)</f>
+        <v>70364.680976527015</v>
+      </c>
+      <c r="J229">
+        <f t="shared" ref="J229:K229" si="9">SUM(G218:G229)*(1+G203/100)</f>
+        <v>71404.536410145593</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="9"/>
+        <v>72454.58642362048</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>2019</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D230">
+        <v>5832.4261200000001</v>
+      </c>
+      <c r="E230">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="F230">
+        <f>I$229*$E230</f>
+        <v>5741.7579676846053</v>
+      </c>
+      <c r="G230">
+        <f t="shared" ref="G230:H230" si="10">J$229*$E230</f>
+        <v>5826.6101710678804</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="10"/>
+        <v>5912.2942521674313</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>2019</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="D231">
+        <v>5509.1337750000002</v>
+      </c>
+      <c r="E231">
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>2019</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D232">
+        <v>6021.8828059999996</v>
+      </c>
+      <c r="E232">
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>2019</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="D233">
+        <v>5834.6984140000004</v>
+      </c>
+      <c r="E233">
+        <v>8.1199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>2019</v>
+      </c>
+      <c r="B234">
+        <v>5</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D234">
+        <v>6104.0705829999997</v>
+      </c>
+      <c r="E234">
+        <v>8.4599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>2019</v>
+      </c>
+      <c r="B235">
+        <v>6</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="D235">
+        <v>5882.7662929999997</v>
+      </c>
+      <c r="E235">
+        <v>8.1500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>2019</v>
+      </c>
+      <c r="B236">
+        <v>7</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D236">
+        <v>6146.8170689999997</v>
+      </c>
+      <c r="E236">
+        <v>8.4699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>2019</v>
+      </c>
+      <c r="B237">
+        <v>8</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D237">
+        <v>6256.7983649999996</v>
+      </c>
+      <c r="E237">
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>2019</v>
+      </c>
+      <c r="B238">
+        <v>9</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="D238">
+        <v>6050.1472860000003</v>
+      </c>
+      <c r="E238">
+        <v>8.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>2019</v>
+      </c>
+      <c r="B239">
+        <v>10</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D239">
+        <v>6092.4388769999996</v>
+      </c>
+      <c r="E239">
+        <v>8.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>2019</v>
+      </c>
+      <c r="B240">
+        <v>11</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="D240">
+        <v>5979.3437459999996</v>
+      </c>
+      <c r="E240">
+        <v>8.3500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>2019</v>
+      </c>
+      <c r="B241">
+        <v>12</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D241">
+        <v>6157.7721959999999</v>
+      </c>
+      <c r="E241">
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1DA63A-A613-594D-843D-3BC2BAFF2676}">
   <dimension ref="A1:M37"/>
   <sheetViews>
@@ -13821,7 +17636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868C9057-F7DE-2246-AC11-FA421DF045C5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
@@ -13987,24 +17802,24 @@
       <c r="D11">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="12" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -14028,7 +17843,7 @@
       <c r="G12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -14061,7 +17876,7 @@
       <c r="J13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="8" t="s">
         <v>21</v>
       </c>
@@ -14109,7 +17924,7 @@
         <f t="shared" si="1"/>
         <v>18.184431098874484</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>5618.579084</v>
       </c>
       <c r="L14">
@@ -14162,19 +17977,19 @@
         <f t="shared" si="0"/>
         <v>5319.0022745078086</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f>($C15-E15)/$C15</f>
         <v>-2.7105776454794527E-2</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f t="shared" ref="I15:J15" si="4">($C15-F15)/$C15</f>
         <v>-2.1168748845229332E-2</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <f t="shared" si="4"/>
         <v>-1.5231721235663962E-2</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>5239.200237</v>
       </c>
       <c r="L15">
@@ -14227,19 +18042,19 @@
         <f t="shared" si="0"/>
         <v>5771.9753714336348</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f t="shared" ref="H16:H25" si="8">($C16-E16)/$C16</f>
         <v>-8.5035336582397238E-3</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <f t="shared" ref="I16:I25" si="9">($C16-F16)/$C16</f>
         <v>-2.6740334636833367E-3</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <f t="shared" ref="J16:J25" si="10">($C16-G16)/$C16</f>
         <v>3.1554667308728943E-3</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>5790.2463010000001</v>
       </c>
       <c r="L16">
@@ -14292,19 +18107,19 @@
         <f t="shared" si="0"/>
         <v>5572.9417379359229</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <f t="shared" si="8"/>
         <v>-5.4959505066990216E-3</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <f t="shared" si="9"/>
         <v>3.1616481414893248E-4</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f t="shared" si="10"/>
         <v>6.1282801349968868E-3</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>5607.304873</v>
       </c>
       <c r="L17">
@@ -14357,19 +18172,19 @@
         <f t="shared" si="0"/>
         <v>5806.2915151401367</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="8"/>
         <v>-1.2947659713299002E-2</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <f t="shared" si="9"/>
         <v>-7.0924709288290614E-3</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <f t="shared" si="10"/>
         <v>-1.2372821443591203E-3</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>5799.1163720000004</v>
       </c>
       <c r="L18">
@@ -14422,19 +18237,19 @@
         <f t="shared" si="0"/>
         <v>5593.5314241598253</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f t="shared" si="8"/>
         <v>6.6680250182811771E-3</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <f t="shared" si="9"/>
         <v>1.2409828341874795E-2</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <f t="shared" si="10"/>
         <v>1.8151631665468571E-2</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>5696.940184</v>
       </c>
       <c r="L19">
@@ -14487,19 +18302,19 @@
         <f t="shared" si="0"/>
         <v>5813.1547438814368</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <f t="shared" si="8"/>
         <v>6.2690041680888613E-3</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <f t="shared" si="9"/>
         <v>1.2013113970585475E-2</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <f t="shared" si="10"/>
         <v>1.775722377308209E-2</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>5918.2463690000004</v>
       </c>
       <c r="L20">
@@ -14552,19 +18367,19 @@
         <f t="shared" si="0"/>
         <v>5888.6502600357417</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <f t="shared" si="8"/>
         <v>1.0177315355782831E-2</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <f t="shared" si="9"/>
         <v>1.5898833764130926E-2</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <f t="shared" si="10"/>
         <v>2.1620352172479023E-2</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>6018.7783680000002</v>
       </c>
       <c r="L21">
@@ -14617,19 +18432,19 @@
         <f t="shared" si="0"/>
         <v>5758.2489139510344</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f t="shared" si="8"/>
         <v>-2.1331761154092027E-3</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <f t="shared" si="9"/>
         <v>3.659501203176881E-3</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <f t="shared" si="10"/>
         <v>9.4521785217631209E-3</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>5813.1962830000002</v>
       </c>
       <c r="L22">
@@ -14682,19 +18497,19 @@
         <f t="shared" si="0"/>
         <v>5881.7870312944415</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="8"/>
         <v>-2.8454730321651809E-3</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <f t="shared" si="9"/>
         <v>2.9513216096392482E-3</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <f t="shared" si="10"/>
         <v>8.7481162514436769E-3</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>5933.6956909999999</v>
       </c>
       <c r="L23">
@@ -14747,19 +18562,19 @@
         <f t="shared" si="0"/>
         <v>5730.7959989858327</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <f t="shared" si="8"/>
         <v>3.682742231609153E-3</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <f t="shared" si="9"/>
         <v>9.4418015250680616E-3</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <f t="shared" si="10"/>
         <v>1.520086081852697E-2</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <v>5819.2536639999998</v>
       </c>
       <c r="L24">
@@ -14812,19 +18627,19 @@
         <f t="shared" si="0"/>
         <v>5888.6502600357417</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f t="shared" si="8"/>
         <v>-1.4720616377351921E-2</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f t="shared" si="9"/>
         <v>-8.8551792884654732E-3</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f t="shared" si="10"/>
         <v>-2.9897421995790253E-3</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>5871.0971929999996</v>
       </c>
       <c r="L25">
@@ -15079,7 +18894,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <f>G38/F38</f>
         <v>-3.7758205697144259E-3</v>
       </c>
@@ -15096,7 +18911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DA8B75-5678-D143-A535-1C0D8E49E19D}">
   <dimension ref="A1:D16"/>
   <sheetViews>
